--- a/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>易方达易百智能量化策略灵活配置混合C</t>
   </si>
   <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
     <t>80.81</t>
   </si>
   <si>
     <t>0.68</t>
+  </si>
+  <si>
+    <t>0.0056</t>
+  </si>
+  <si>
+    <t>0.0014</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>005437</t>
-  </si>
-  <si>
-    <t>005438</t>
-  </si>
-  <si>
-    <t>易方达易百智能量化策略灵活配置混合A</t>
-  </si>
-  <si>
-    <t>易方达易百智能量化策略灵活配置混合C</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>80.81</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.0056</t>
-  </si>
-  <si>
-    <t>0.0014</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4917</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.42</v>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5948</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +1110,727 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6900</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4530</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011801</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>42.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011802</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1761,7 +1762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1772,17 +1773,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1792,14 +1813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.94</v>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1808,14 +1851,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.42</v>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1824,13 +1889,591 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2388,7 +2389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,17 +2400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2419,14 +2440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.58</v>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2435,14 +2478,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.94</v>
+          <t>015004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2451,14 +2516,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>015005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>1.42</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="5">
@@ -2467,13 +2638,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.58</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>8.94</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>1.42</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -566,6 +583,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5770</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时特许价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012259</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012258</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015461</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>57.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015936</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +1948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1361,7 +2574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2101,7 +3314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2537,7 +3750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002837-英维克.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>2.39</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.58</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>8.94</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>1.42</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -583,6 +600,1998 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7359</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016097</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴兴弘一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016590</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国汽车智选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014807</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015696</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银绿色能源混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012259</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014380</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>016098</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴兴弘一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>66.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013983</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012258</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014808</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016591</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国汽车智选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015461</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013984</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1778,7 +3787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1948,7 +3957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2574,7 +4583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3314,7 +5323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3750,7 +5759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
